--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 11,22</t>
+          <t>-8,47; 12,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 14,44</t>
+          <t>-8,26; 14,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 26,08</t>
+          <t>1,09; 24,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 17,23</t>
+          <t>-4,84; 18,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 18,06</t>
+          <t>-6,68; 17,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 5,13</t>
+          <t>-15,04; 5,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 12,0</t>
+          <t>-5,44; 10,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 12,6</t>
+          <t>-4,53; 12,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 13,28</t>
+          <t>-3,23; 13,36</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,0; 152,77</t>
+          <t>-47,55; 177,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,56; 205,34</t>
+          <t>-48,03; 193,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 355,56</t>
+          <t>1,58; 336,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 204,32</t>
+          <t>-31,18; 233,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,01; 201,46</t>
+          <t>-42,64; 194,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,17; 62,31</t>
+          <t>-77,09; 91,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,55; 116,76</t>
+          <t>-31,2; 111,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 128,4</t>
+          <t>-27,51; 126,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 135,9</t>
+          <t>-21,39; 141,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 5,99</t>
+          <t>-1,1; 6,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 2,43</t>
+          <t>-3,87; 2,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,26</t>
+          <t>-2,99; 3,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,93</t>
+          <t>0,14; 6,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,04</t>
+          <t>-1,42; 4,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,82</t>
+          <t>-3,08; 2,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 5,38</t>
+          <t>0,25; 5,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 2,72</t>
+          <t>-1,64; 2,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,99</t>
+          <t>-2,04; 2,23</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 103,93</t>
+          <t>-12,55; 98,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 42,96</t>
+          <t>-42,34; 38,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 55,6</t>
+          <t>-32,84; 55,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 148,62</t>
+          <t>0,48; 150,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 110,54</t>
+          <t>-19,38; 105,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,3; 62,06</t>
+          <t>-38,72; 64,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 90,87</t>
+          <t>2,89; 94,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 47,16</t>
+          <t>-22,0; 43,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 34,25</t>
+          <t>-24,92; 38,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 3,17</t>
+          <t>-7,41; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -0,55</t>
+          <t>-9,33; -0,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; -0,46</t>
+          <t>-8,82; -0,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 7,66</t>
+          <t>-2,42; 7,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,81</t>
+          <t>-2,37; 7,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,37</t>
+          <t>-4,08; 4,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,73</t>
+          <t>-2,89; 4,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,95</t>
+          <t>-4,3; 1,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 0,51</t>
+          <t>-5,26; 0,62</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,02; 78,76</t>
+          <t>-70,88; 69,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,28; 18,56</t>
+          <t>-89,31; 6,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,17; 19,53</t>
+          <t>-84,93; 14,02</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,28; 301,6</t>
+          <t>-39,39; 297,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 336,73</t>
+          <t>-39,65; 260,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,8; 178,52</t>
+          <t>-64,5; 181,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 85,71</t>
+          <t>-39,39; 103,28</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,52; 46,11</t>
+          <t>-56,83; 47,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 18,7</t>
+          <t>-68,21; 19,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,11</t>
+          <t>-1,47; 3,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,16</t>
+          <t>-3,97; 1,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,45</t>
+          <t>-2,57; 2,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,52</t>
+          <t>0,55; 6,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,43</t>
+          <t>-0,96; 4,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,94</t>
+          <t>-3,12; 1,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,44</t>
+          <t>0,43; 4,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,15</t>
+          <t>-1,66; 2,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,53</t>
+          <t>-1,85; 1,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 64,22</t>
+          <t>-16,62; 57,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 17,95</t>
+          <t>-41,95; 19,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 37,96</t>
+          <t>-27,6; 40,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,02; 118,61</t>
+          <t>6,4; 122,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 87,23</t>
+          <t>-14,2; 84,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 38,28</t>
+          <t>-38,93; 30,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,4; 68,93</t>
+          <t>4,36; 73,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 35,41</t>
+          <t>-20,09; 33,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 24,08</t>
+          <t>-22,81; 28,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>14,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,96</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 17,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,62; 18,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,28; 4,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,68; 10,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,91; 13,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 26,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,95; 10,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 11,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,87; 14,39</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,47%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,46; 211,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,13; 210,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,44; 62,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,17; 154,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,31; 176,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 339,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,48; 117,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,18; 120,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,26; 139,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,87</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 12,11</t>
+          <t>0,23; 7,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 14,77</t>
+          <t>-1,52; 4,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 24,66</t>
+          <t>-3,47; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 18,5</t>
+          <t>-1,58; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 17,98</t>
+          <t>-3,79; 2,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 5,31</t>
+          <t>-3,04; 3,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 10,45</t>
+          <t>0,53; 5,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 12,01</t>
+          <t>-1,87; 2,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 13,36</t>
+          <t>-2,12; 2,25</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>58,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>100,92%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>30,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-34,57%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>0,88%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 177,68</t>
+          <t>2,38; 163,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 193,31</t>
+          <t>-21,58; 110,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 336,41</t>
+          <t>-42,54; 62,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 233,76</t>
+          <t>-18,77; 94,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-42,64; 194,43</t>
+          <t>-42,2; 44,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,09; 91,24</t>
+          <t>-35,05; 57,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 111,91</t>
+          <t>4,82; 90,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 126,24</t>
+          <t>-23,87; 42,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 141,77</t>
+          <t>-26,75; 39,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-4,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-1,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,03</t>
+          <t>-2,06; 8,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 2,3</t>
+          <t>-1,94; 7,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,37</t>
+          <t>-3,93; 4,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 6,93</t>
+          <t>-7,79; 2,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,93</t>
+          <t>-9,4; -0,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 2,86</t>
+          <t>-9,12; -0,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 5,43</t>
+          <t>-3,1; 4,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,63</t>
+          <t>-3,99; 2,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,23</t>
+          <t>-5,06; 1,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>54,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,65%</t>
+          <t>54,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>58,15%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,3%</t>
+          <t>-63,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>-58,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>-17,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-33,75%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,55; 98,69</t>
+          <t>-36,94; 300,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 38,81</t>
+          <t>-36,61; 347,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,84; 55,1</t>
+          <t>-61,45; 183,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,48; 150,52</t>
+          <t>-72,74; 74,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 105,71</t>
+          <t>-89,18; 6,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 64,01</t>
+          <t>-85,33; 5,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,89; 94,63</t>
+          <t>-42,93; 93,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 43,74</t>
+          <t>-55,0; 54,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,92; 38,58</t>
+          <t>-63,96; 31,06</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,61</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 2,8</t>
+          <t>0,45; 6,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,33; -0,69</t>
+          <t>-0,95; 4,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -0,46</t>
+          <t>-2,88; 1,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 7,67</t>
+          <t>-1,78; 4,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 7,22</t>
+          <t>-3,93; 1,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,21</t>
+          <t>-2,45; 3,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,03</t>
+          <t>0,3; 4,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 1,85</t>
+          <t>-1,49; 2,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,62</t>
+          <t>-1,77; 1,84</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-27,98%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-63,75%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-60,21%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>54,02%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>54,39%</t>
+          <t>-17,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-17,4%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,81%</t>
+          <t>-1,83%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-70,88; 69,98</t>
+          <t>3,02; 118,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-89,31; 6,04</t>
+          <t>-12,62; 85,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,93; 14,02</t>
+          <t>-37,69; 35,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 297,83</t>
+          <t>-20,85; 58,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 260,14</t>
+          <t>-41,85; 18,43</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-64,5; 181,92</t>
+          <t>-26,96; 44,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 103,28</t>
+          <t>4,12; 67,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 47,16</t>
+          <t>-18,8; 33,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 19,2</t>
+          <t>-22,0; 29,35</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-1,36</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>2,35</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-0,23</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 3,88</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 1,3</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-2,57; 2,7</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,55; 6,48</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 4,67</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 1,61</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 4,64</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-1,66; 2,16</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 1,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>14,94%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-17,02%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>54,91%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-7,69%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>32,24%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>3,35%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-3,12%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; 57,05</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-41,95; 19,16</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-27,6; 40,9</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 122,31</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 84,25</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-38,93; 30,51</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 73,89</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-20,09; 33,63</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-22,81; 28,22</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
